--- a/Datos/1.4.xlsx
+++ b/Datos/1.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/00221465bcab5e24/Documentos/GitHub/Otimização Aplicada a Sistemas de Distribuição de Energia Elétrica/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC4BC554-931B-46EE-887B-CA238F698B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{EC4BC554-931B-46EE-887B-CA238F698B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{360D668A-5F49-4DE8-8C55-9B486993E0F5}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1110" windowWidth="24240" windowHeight="13140" xr2:uid="{9E8F2AF1-2B3C-4CA0-8A6E-CCBC7C62EDE1}"/>
+    <workbookView xWindow="20370" yWindow="-1110" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{9E8F2AF1-2B3C-4CA0-8A6E-CCBC7C62EDE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Distancia" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Med_1</t>
   </si>
@@ -94,13 +94,16 @@
   </si>
   <si>
     <t>Custo</t>
+  </si>
+  <si>
+    <t>Bairro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +119,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,13 +154,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,14 +477,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05395A8-75B2-4B6C-A3CC-00040EF4FB7B}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="11.42578125" style="3"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
@@ -800,84 +808,115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F92252A-E6B9-4648-B249-3DB7F58F153B}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B7">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B8">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>